--- a/secure/26P-Quentin.xlsx
+++ b/secure/26P-Quentin.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Quentin-1036424</t>
+    <t>26P-Quentin-670365</t>
   </si>
   <si>
-    <t>26P-Quentin-994025</t>
+    <t>26P-Quentin-606372</t>
   </si>
   <si>
-    <t>26P-Quentin-221689</t>
+    <t>26P-Quentin-1031466</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Fbb66b8e"/>
+        <fgColor rgb="F6a95f21"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:NG503"/>
+  <dimension ref="A1:WW503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -589,11 +589,14 @@
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:174" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>-0.912</v>
       </c>
       <c r="M24" s="4"/>
+      <c r="FR24" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -727,11 +730,14 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>-0.82</v>
       </c>
       <c r="M47" s="4"/>
+      <c r="RM47" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -1675,14 +1681,11 @@
       </c>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>-0.188</v>
       </c>
       <c r="M205" s="4"/>
-      <c r="JO205" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
@@ -2734,11 +2737,14 @@
       </c>
       <c r="M380" s="4"/>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:621" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>0.516</v>
       </c>
       <c r="M381" s="4"/>
+      <c r="WW381" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
@@ -2746,14 +2752,11 @@
       </c>
       <c r="M382" s="4"/>
     </row>
-    <row r="383" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>0.524</v>
       </c>
       <c r="M383" s="4"/>
-      <c r="BF383" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
@@ -3127,14 +3130,11 @@
       </c>
       <c r="M445" s="4"/>
     </row>
-    <row r="446" spans="1:371" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>0.776</v>
       </c>
       <c r="M446" s="4"/>
-      <c r="NG446" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
